--- a/_example/dv/dv.xlsx
+++ b/_example/dv/dv.xlsx
@@ -356,13 +356,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" error="Value not found" errorStyle="stop" errorTitle="Must select a value from the list" showErrorMessage="true" showInputMessage="true" sqref="B2:B2" type="list">
-      <formula1>list!$A$2:$A$3</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Value not found" errorStyle="stop" errorTitle="Must select a value from the list" showErrorMessage="true" showInputMessage="true" sqref="B2:B2" type="list">
-      <formula1>list!$A$2:$A$3</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation allowBlank="true" error="Value not found" errorStyle="stop" errorTitle="Must select a value from the list" showErrorMessage="true" showInputMessage="true" sqref="B2:B2" type="list">
       <formula1>list!$A$2:$A$3</formula1>
     </dataValidation>
